--- a/Latam_Numbers.xlsx
+++ b/Latam_Numbers.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\rafael\code\latam_numbers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77619045-BB97-46F6-91E3-11F543B8ACBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BADCA4-4464-484E-8336-876878DA950E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="LATAM_numbers" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LATAM_numbers!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$C$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -572,24 +572,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.07421875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.4609375" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.765625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3046875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.4609375" style="7" customWidth="1"/>
-    <col min="10" max="10" width="10.84375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.4609375" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" style="7" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -605,15 +603,15 @@
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
@@ -621,15 +619,15 @@
       <c r="J2" s="5"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
@@ -637,15 +635,15 @@
       <c r="J3" s="5"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
@@ -653,15 +651,15 @@
       <c r="J4" s="5"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
@@ -669,15 +667,15 @@
       <c r="J5" s="5"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -685,15 +683,15 @@
       <c r="J6" s="5"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -701,15 +699,15 @@
       <c r="J7" s="5"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -717,15 +715,15 @@
       <c r="J8" s="5"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
@@ -733,15 +731,15 @@
       <c r="J9" s="5"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
@@ -749,15 +747,15 @@
       <c r="J10" s="5"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
@@ -765,15 +763,15 @@
       <c r="J11" s="5"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -781,15 +779,15 @@
       <c r="J12" s="5"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E13"/>
       <c r="F13"/>
@@ -797,15 +795,15 @@
       <c r="J13" s="5"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
@@ -813,15 +811,15 @@
       <c r="J14" s="5"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E15"/>
       <c r="F15"/>
@@ -829,15 +827,15 @@
       <c r="J15" s="5"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>15</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E16"/>
       <c r="F16"/>
@@ -845,15 +843,15 @@
       <c r="J16" s="5"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>16</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E17"/>
       <c r="F17"/>
@@ -861,15 +859,15 @@
       <c r="J17" s="5"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>17</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E18"/>
       <c r="F18"/>
@@ -877,15 +875,15 @@
       <c r="J18" s="5"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>18</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="E19"/>
       <c r="F19"/>
@@ -893,15 +891,15 @@
       <c r="J19" s="5"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>19</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E20"/>
       <c r="F20"/>
@@ -909,16 +907,12 @@
       <c r="J20" s="5"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J21" s="5"/>
       <c r="K21" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G20">
-      <sortCondition ref="A1"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:C1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>